--- a/Code/Results/Cases/Case_5_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.163919504228488</v>
+        <v>0.6111739799904399</v>
       </c>
       <c r="C2">
-        <v>0.1225643516077888</v>
+        <v>0.186433905212855</v>
       </c>
       <c r="D2">
-        <v>0.06835637206386025</v>
+        <v>0.05180973644350217</v>
       </c>
       <c r="E2">
-        <v>0.07717050040850637</v>
+        <v>0.1194009475103286</v>
       </c>
       <c r="F2">
-        <v>0.6626657135426797</v>
+        <v>1.068408293977036</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9344474231693027</v>
+        <v>0.3152865101613713</v>
       </c>
       <c r="L2">
-        <v>0.2470072355862811</v>
+        <v>0.1920005324638652</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.098662395448031</v>
+        <v>3.84824323216958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.011370874842555</v>
+        <v>0.568764282928953</v>
       </c>
       <c r="C3">
-        <v>0.1235720953195845</v>
+        <v>0.1867681177691267</v>
       </c>
       <c r="D3">
-        <v>0.06380500320354798</v>
+        <v>0.05010185833346981</v>
       </c>
       <c r="E3">
-        <v>0.0723923713136756</v>
+        <v>0.1189125529880499</v>
       </c>
       <c r="F3">
-        <v>0.6366285438325789</v>
+        <v>1.069010116001721</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8143958748989633</v>
+        <v>0.2791099968645767</v>
       </c>
       <c r="L3">
-        <v>0.2176111145569166</v>
+        <v>0.1849179742812765</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.063375294685159</v>
+        <v>3.865075140854202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9180980874211571</v>
+        <v>0.5429188198678787</v>
       </c>
       <c r="C4">
-        <v>0.1242371176897166</v>
+        <v>0.1869959736744917</v>
       </c>
       <c r="D4">
-        <v>0.06099776474421503</v>
+        <v>0.04904136516670121</v>
       </c>
       <c r="E4">
-        <v>0.06957235043944721</v>
+        <v>0.11867376500755</v>
       </c>
       <c r="F4">
-        <v>0.6218798685407734</v>
+        <v>1.069978404952778</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7407725401804726</v>
+        <v>0.2568984416939912</v>
       </c>
       <c r="L4">
-        <v>0.199785832158085</v>
+        <v>0.1806710816900079</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.045798313811787</v>
+        <v>3.877423588116102</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8801705515275842</v>
+        <v>0.5324360502573882</v>
       </c>
       <c r="C5">
-        <v>0.1245196922526084</v>
+        <v>0.1870945466769953</v>
       </c>
       <c r="D5">
-        <v>0.05985039121255653</v>
+        <v>0.04860624778882539</v>
       </c>
       <c r="E5">
-        <v>0.0684502899295083</v>
+        <v>0.1185918329572537</v>
       </c>
       <c r="F5">
-        <v>0.6161658568072497</v>
+        <v>1.07052356743867</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7107812812818537</v>
+        <v>0.2478477703463966</v>
       </c>
       <c r="L5">
-        <v>0.1925730703450057</v>
+        <v>0.178966105287671</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.039618443531623</v>
+        <v>3.882961979804122</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8738771838608841</v>
+        <v>0.5306984002395154</v>
       </c>
       <c r="C6">
-        <v>0.1245673108528642</v>
+        <v>0.1871112608505463</v>
       </c>
       <c r="D6">
-        <v>0.0596596593880605</v>
+        <v>0.04853381887863151</v>
       </c>
       <c r="E6">
-        <v>0.06826556856041677</v>
+        <v>0.1185791573128405</v>
       </c>
       <c r="F6">
-        <v>0.6152345092442459</v>
+        <v>1.070623186081534</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7058015881532924</v>
+        <v>0.2463449706152829</v>
       </c>
       <c r="L6">
-        <v>0.191378342589644</v>
+        <v>0.1786845472899472</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.038650359530408</v>
+        <v>3.883912203790317</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.917586273465929</v>
+        <v>0.5427772444623145</v>
       </c>
       <c r="C7">
-        <v>0.1242408818069016</v>
+        <v>0.1869972798714734</v>
       </c>
       <c r="D7">
-        <v>0.060982304903753</v>
+        <v>0.04903550896827369</v>
       </c>
       <c r="E7">
-        <v>0.06955711004036402</v>
+        <v>0.1186725977665049</v>
       </c>
       <c r="F7">
-        <v>0.6218016276171738</v>
+        <v>1.069985147510693</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7403680383364133</v>
+        <v>0.2567763776388148</v>
       </c>
       <c r="L7">
-        <v>0.1996883577010635</v>
+        <v>0.1806479837753301</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.045711048611139</v>
+        <v>3.877496230868815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.111228743672058</v>
+        <v>0.5965111530577758</v>
       </c>
       <c r="C8">
-        <v>0.1229021808863635</v>
+        <v>0.1865444558894715</v>
       </c>
       <c r="D8">
-        <v>0.06678955746574644</v>
+        <v>0.05122333189688533</v>
       </c>
       <c r="E8">
-        <v>0.07549846912282376</v>
+        <v>0.1192198786790648</v>
       </c>
       <c r="F8">
-        <v>0.6534217222983401</v>
+        <v>1.06849153236017</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8930280609670547</v>
+        <v>0.3028129194117071</v>
       </c>
       <c r="L8">
-        <v>0.2368217559196495</v>
+        <v>0.1895373665808222</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.08561856939221</v>
+        <v>3.853628928863259</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.494903896174094</v>
+        <v>0.7034031555616878</v>
       </c>
       <c r="C9">
-        <v>0.1206471703631529</v>
+        <v>0.1858351020292162</v>
       </c>
       <c r="D9">
-        <v>0.07808788709884595</v>
+        <v>0.05541885827133086</v>
       </c>
       <c r="E9">
-        <v>0.08812357485876277</v>
+        <v>0.1207773541943808</v>
       </c>
       <c r="F9">
-        <v>0.7259798577746324</v>
+        <v>1.070314351611046</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.193665069125018</v>
+        <v>0.3930818299906491</v>
       </c>
       <c r="L9">
-        <v>0.3116675712381181</v>
+        <v>0.2077757740710808</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.198497147122595</v>
+        <v>3.822806458634375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.780445630399981</v>
+        <v>0.7828429776630799</v>
       </c>
       <c r="C10">
-        <v>0.1192209241973075</v>
+        <v>0.1854214326336674</v>
       </c>
       <c r="D10">
-        <v>0.0863513005387091</v>
+        <v>0.05844276359182743</v>
       </c>
       <c r="E10">
-        <v>0.09809911222281542</v>
+        <v>0.122216548862486</v>
       </c>
       <c r="F10">
-        <v>0.7867963590028779</v>
+        <v>1.074553548128662</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.416180273409367</v>
+        <v>0.4593818799431233</v>
       </c>
       <c r="L10">
-        <v>0.3682661625055772</v>
+        <v>0.221666609997726</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.305750075041772</v>
+        <v>3.809913828208778</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.911440797187794</v>
+        <v>0.8191752283343874</v>
       </c>
       <c r="C11">
-        <v>0.1186233745596468</v>
+        <v>0.185256293436133</v>
       </c>
       <c r="D11">
-        <v>0.09010661460219183</v>
+        <v>0.05980555961085088</v>
       </c>
       <c r="E11">
-        <v>0.1028144555839283</v>
+        <v>0.1229352700254971</v>
       </c>
       <c r="F11">
-        <v>0.8163501316913653</v>
+        <v>1.077112569984678</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.517971787398722</v>
+        <v>0.4895362296731776</v>
       </c>
       <c r="L11">
-        <v>0.3944530976287268</v>
+        <v>0.2280925395393893</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.360591328980234</v>
+        <v>3.80616878254142</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.961230115702904</v>
+        <v>0.8329607982145149</v>
       </c>
       <c r="C12">
-        <v>0.1184045859885785</v>
+        <v>0.1851970491289094</v>
       </c>
       <c r="D12">
-        <v>0.09152847897912864</v>
+        <v>0.06031975711236015</v>
       </c>
       <c r="E12">
-        <v>0.1046277925826082</v>
+        <v>0.1232166276965927</v>
       </c>
       <c r="F12">
-        <v>0.8278358396981957</v>
+        <v>1.078172310048998</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.556617642813364</v>
+        <v>0.5009536692645042</v>
       </c>
       <c r="L12">
-        <v>0.4044405976894438</v>
+        <v>0.2305412087999059</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.382297528198222</v>
+        <v>3.805055604291283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.9504984634153</v>
+        <v>0.8299906238260064</v>
       </c>
       <c r="C13">
-        <v>0.1184513708508348</v>
+        <v>0.1852096624744277</v>
       </c>
       <c r="D13">
-        <v>0.09122225770774861</v>
+        <v>0.06020909875410752</v>
       </c>
       <c r="E13">
-        <v>0.1042359871735279</v>
+        <v>0.1231556236104616</v>
       </c>
       <c r="F13">
-        <v>0.8253487147754726</v>
+        <v>1.077940042181837</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.548289835672676</v>
+        <v>0.4984947879209471</v>
       </c>
       <c r="L13">
-        <v>0.4022863191343902</v>
+        <v>0.2300131642281116</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.377579796421259</v>
+        <v>3.805281780236015</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.91553314491145</v>
+        <v>0.8203088313989326</v>
       </c>
       <c r="C14">
-        <v>0.1186052238445967</v>
+        <v>0.1852513535594795</v>
       </c>
       <c r="D14">
-        <v>0.09022359398100832</v>
+        <v>0.0598479004392658</v>
       </c>
       <c r="E14">
-        <v>0.1029630706659361</v>
+        <v>0.1229582333128079</v>
       </c>
       <c r="F14">
-        <v>0.8172890321178983</v>
+        <v>1.077197937707055</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.521149101119988</v>
+        <v>0.4904755794527489</v>
       </c>
       <c r="L14">
-        <v>0.3952733039933207</v>
+        <v>0.2282936865906748</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.362357879485501</v>
+        <v>3.806071087383941</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.894140683347416</v>
+        <v>0.8143819942825132</v>
       </c>
       <c r="C15">
-        <v>0.1187004424798062</v>
+        <v>0.1852773183727052</v>
       </c>
       <c r="D15">
-        <v>0.08961186949717614</v>
+        <v>0.05962641261107393</v>
       </c>
       <c r="E15">
-        <v>0.1021870537325071</v>
+        <v>0.1228385229406612</v>
       </c>
       <c r="F15">
-        <v>0.8123912811558114</v>
+        <v>1.07675518878122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.504538146072946</v>
+        <v>0.4855633906394701</v>
       </c>
       <c r="L15">
-        <v>0.3909871276046459</v>
+        <v>0.2272424486491929</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.353158432039919</v>
+        <v>3.806594283937699</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.771909116937167</v>
+        <v>0.7804724406327921</v>
       </c>
       <c r="C16">
-        <v>0.1192610168799533</v>
+        <v>0.1854326865453118</v>
       </c>
       <c r="D16">
-        <v>0.08610583550895257</v>
+        <v>0.05835344216615113</v>
       </c>
       <c r="E16">
-        <v>0.09779471031648512</v>
+        <v>0.1221708659630458</v>
       </c>
       <c r="F16">
-        <v>0.784904857545385</v>
+        <v>1.074399000504968</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.409540892179194</v>
+        <v>0.4574110601098766</v>
       </c>
       <c r="L16">
-        <v>0.3665642924494676</v>
+        <v>0.2212488062662459</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.30229360807536</v>
+        <v>3.810201246253939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.697223838120891</v>
+        <v>0.7597194195235772</v>
       </c>
       <c r="C17">
-        <v>0.1196181209858409</v>
+        <v>0.1855338848280894</v>
       </c>
       <c r="D17">
-        <v>0.08395427451823423</v>
+        <v>0.05756922209840809</v>
       </c>
       <c r="E17">
-        <v>0.09514712652340762</v>
+        <v>0.1217776689311911</v>
       </c>
       <c r="F17">
-        <v>0.7685421369042729</v>
+        <v>1.073115076265722</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.351421001517053</v>
+        <v>0.4401386463704284</v>
       </c>
       <c r="L17">
-        <v>0.3516997365501879</v>
+        <v>0.2175992386419523</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.272686987266411</v>
+        <v>3.812957061874414</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.654368783847218</v>
+        <v>0.7478011938877955</v>
       </c>
       <c r="C18">
-        <v>0.1198283345258844</v>
+        <v>0.1855942614920068</v>
       </c>
       <c r="D18">
-        <v>0.08271637764949702</v>
+        <v>0.05711695668486527</v>
       </c>
       <c r="E18">
-        <v>0.0936408638061117</v>
+        <v>0.1215575394537645</v>
       </c>
       <c r="F18">
-        <v>0.7593069826009469</v>
+        <v>1.072435950239708</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.318044310157177</v>
+        <v>0.4302034883361046</v>
       </c>
       <c r="L18">
-        <v>0.343190947013241</v>
+        <v>0.2155101714932925</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.256223215047271</v>
+        <v>3.814741657846383</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.63987554710954</v>
+        <v>0.7437690614924293</v>
       </c>
       <c r="C19">
-        <v>0.1199003330224144</v>
+        <v>0.1856150774124075</v>
       </c>
       <c r="D19">
-        <v>0.08229717233270151</v>
+        <v>0.05696362154500179</v>
       </c>
       <c r="E19">
-        <v>0.09313364760711096</v>
+        <v>0.1214840429436954</v>
       </c>
       <c r="F19">
-        <v>0.7562097198025128</v>
+        <v>1.072216203310731</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.306752000845279</v>
+        <v>0.4268395404744183</v>
       </c>
       <c r="L19">
-        <v>0.3403168145911195</v>
+        <v>0.2148045803689485</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.250743917858927</v>
+        <v>3.815380155073058</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.705163480761541</v>
+        <v>0.7619267183088994</v>
       </c>
       <c r="C20">
-        <v>0.119579607301425</v>
+        <v>0.1855228876691655</v>
       </c>
       <c r="D20">
-        <v>0.08418334833064733</v>
+        <v>0.05765282832116725</v>
       </c>
       <c r="E20">
-        <v>0.09542723708031531</v>
+        <v>0.1218189017433353</v>
       </c>
       <c r="F20">
-        <v>0.7702655750567828</v>
+        <v>1.073245609234945</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.357602421553821</v>
+        <v>0.4419773821012711</v>
       </c>
       <c r="L20">
-        <v>0.3532778051147858</v>
+        <v>0.2179866998598072</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.27577968677997</v>
+        <v>3.81264304951651</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.925798087835688</v>
+        <v>0.8231518719024677</v>
       </c>
       <c r="C21">
-        <v>0.1185598291891878</v>
+        <v>0.1852390187595674</v>
       </c>
       <c r="D21">
-        <v>0.09051692800440492</v>
+        <v>0.05995404391231318</v>
       </c>
       <c r="E21">
-        <v>0.1033361857462829</v>
+        <v>0.1230159622218068</v>
       </c>
       <c r="F21">
-        <v>0.8196481778010138</v>
+        <v>1.077413450248926</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.529118139472075</v>
+        <v>0.4928310563099672</v>
       </c>
       <c r="L21">
-        <v>0.3973312024238851</v>
+        <v>0.2287983238898619</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.366802867148522</v>
+        <v>3.805830970204283</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.071083272552698</v>
+        <v>0.8633250742963696</v>
       </c>
       <c r="C22">
-        <v>0.1179370694558912</v>
+        <v>0.1850726621136758</v>
       </c>
       <c r="D22">
-        <v>0.09465535470561548</v>
+        <v>0.06144714676299401</v>
       </c>
       <c r="E22">
-        <v>0.108667973798859</v>
+        <v>0.1238518914585285</v>
       </c>
       <c r="F22">
-        <v>0.8536500014573392</v>
+        <v>1.080666016076236</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.641803564376659</v>
+        <v>0.5260587187786712</v>
       </c>
       <c r="L22">
-        <v>0.4265409797818478</v>
+        <v>0.2359535483607829</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.4318007292338</v>
+        <v>3.803156663553608</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993433193414546</v>
+        <v>0.8418695465844053</v>
       </c>
       <c r="C23">
-        <v>0.1182654047143643</v>
+        <v>0.1851597034080896</v>
       </c>
       <c r="D23">
-        <v>0.09244656119002315</v>
+        <v>0.06065125260926862</v>
       </c>
       <c r="E23">
-        <v>0.1058066212905615</v>
+        <v>0.1234008419602404</v>
       </c>
       <c r="F23">
-        <v>0.8353365393779768</v>
+        <v>1.078881684840312</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.581600960804565</v>
+        <v>0.5083254050418304</v>
       </c>
       <c r="L23">
-        <v>0.4109101598014036</v>
+        <v>0.2321265300238622</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.396581978858251</v>
+        <v>3.804421273950851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.701573713273291</v>
+        <v>0.7609287581026933</v>
       </c>
       <c r="C24">
-        <v>0.1195970040545404</v>
+        <v>0.1855278526420392</v>
       </c>
       <c r="D24">
-        <v>0.08407978700086716</v>
+        <v>0.0576150343279096</v>
       </c>
       <c r="E24">
-        <v>0.09530054983718728</v>
+        <v>0.1218002419333288</v>
       </c>
       <c r="F24">
-        <v>0.7694858746592104</v>
+        <v>1.073186411438613</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.35480768699756</v>
+        <v>0.4411461052687855</v>
       </c>
       <c r="L24">
-        <v>0.3525642455239222</v>
+        <v>0.2178115002387102</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.274379746083895</v>
+        <v>3.812784390768655</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.390563448875099</v>
+        <v>0.6743254259203582</v>
       </c>
       <c r="C25">
-        <v>0.1212171144864094</v>
+        <v>0.1860080237744235</v>
       </c>
       <c r="D25">
-        <v>0.07503929547159061</v>
+        <v>0.05429408431602667</v>
       </c>
       <c r="E25">
-        <v>0.0845933252831621</v>
+        <v>0.1203042032760528</v>
       </c>
       <c r="F25">
-        <v>0.7051145463619619</v>
+        <v>1.069312189369512</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.112113378635456</v>
+        <v>0.3686642073799362</v>
       </c>
       <c r="L25">
-        <v>0.2911656887868759</v>
+        <v>0.2027555266340073</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.163935101635644</v>
+        <v>3.829432809506471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6111739799904399</v>
+        <v>1.163919504228375</v>
       </c>
       <c r="C2">
-        <v>0.186433905212855</v>
+        <v>0.1225643516077781</v>
       </c>
       <c r="D2">
-        <v>0.05180973644350217</v>
+        <v>0.06835637206397394</v>
       </c>
       <c r="E2">
-        <v>0.1194009475103286</v>
+        <v>0.07717050040853124</v>
       </c>
       <c r="F2">
-        <v>1.068408293977036</v>
+        <v>0.6626657135426797</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3152865101613713</v>
+        <v>0.9344474231692743</v>
       </c>
       <c r="L2">
-        <v>0.1920005324638652</v>
+        <v>0.2470072355863238</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.84824323216958</v>
+        <v>2.098662395448002</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.568764282928953</v>
+        <v>1.011370874842441</v>
       </c>
       <c r="C3">
-        <v>0.1867681177691267</v>
+        <v>0.1235720953190302</v>
       </c>
       <c r="D3">
-        <v>0.05010185833346981</v>
+        <v>0.06380500320350535</v>
       </c>
       <c r="E3">
-        <v>0.1189125529880499</v>
+        <v>0.07239237131368981</v>
       </c>
       <c r="F3">
-        <v>1.069010116001721</v>
+        <v>0.6366285438325789</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2791099968645767</v>
+        <v>0.8143958748989064</v>
       </c>
       <c r="L3">
-        <v>0.1849179742812765</v>
+        <v>0.2176111145569735</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.865075140854202</v>
+        <v>2.063375294685102</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5429188198678787</v>
+        <v>0.9180980874210434</v>
       </c>
       <c r="C4">
-        <v>0.1869959736744917</v>
+        <v>0.1242371176894572</v>
       </c>
       <c r="D4">
-        <v>0.04904136516670121</v>
+        <v>0.0609977647439166</v>
       </c>
       <c r="E4">
-        <v>0.11867376500755</v>
+        <v>0.069572350439433</v>
       </c>
       <c r="F4">
-        <v>1.069978404952778</v>
+        <v>0.621879868540745</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2568984416939912</v>
+        <v>0.7407725401806147</v>
       </c>
       <c r="L4">
-        <v>0.1806710816900079</v>
+        <v>0.1997858321579997</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.877423588116102</v>
+        <v>2.04579831381173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5324360502573882</v>
+        <v>0.8801705515276126</v>
       </c>
       <c r="C5">
-        <v>0.1870945466769953</v>
+        <v>0.1245196922523775</v>
       </c>
       <c r="D5">
-        <v>0.04860624778882539</v>
+        <v>0.05985039121262758</v>
       </c>
       <c r="E5">
-        <v>0.1185918329572537</v>
+        <v>0.06845028992951185</v>
       </c>
       <c r="F5">
-        <v>1.07052356743867</v>
+        <v>0.6161658568072284</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2478477703463966</v>
+        <v>0.7107812812818821</v>
       </c>
       <c r="L5">
-        <v>0.178966105287671</v>
+        <v>0.1925730703450199</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.882961979804122</v>
+        <v>2.039618443531594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5306984002395154</v>
+        <v>0.8738771838610262</v>
       </c>
       <c r="C6">
-        <v>0.1871112608505463</v>
+        <v>0.1245673108530916</v>
       </c>
       <c r="D6">
-        <v>0.04853381887863151</v>
+        <v>0.05965965938803919</v>
       </c>
       <c r="E6">
-        <v>0.1185791573128405</v>
+        <v>0.06826556856042743</v>
       </c>
       <c r="F6">
-        <v>1.070623186081534</v>
+        <v>0.6152345092442602</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2463449706152829</v>
+        <v>0.7058015881533493</v>
       </c>
       <c r="L6">
-        <v>0.1786845472899472</v>
+        <v>0.1913783425896725</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.883912203790317</v>
+        <v>2.038650359530408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5427772444623145</v>
+        <v>0.9175862734661848</v>
       </c>
       <c r="C7">
-        <v>0.1869972798714734</v>
+        <v>0.1242408818071397</v>
       </c>
       <c r="D7">
-        <v>0.04903550896827369</v>
+        <v>0.06098230490371748</v>
       </c>
       <c r="E7">
-        <v>0.1186725977665049</v>
+        <v>0.06955711004037823</v>
       </c>
       <c r="F7">
-        <v>1.069985147510693</v>
+        <v>0.6218016276171454</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2567763776388148</v>
+        <v>0.7403680383362286</v>
       </c>
       <c r="L7">
-        <v>0.1806479837753301</v>
+        <v>0.1996883577010351</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.877496230868815</v>
+        <v>2.045711048611054</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5965111530577758</v>
+        <v>1.111228743672001</v>
       </c>
       <c r="C8">
-        <v>0.1865444558894715</v>
+        <v>0.1229021808865021</v>
       </c>
       <c r="D8">
-        <v>0.05122333189688533</v>
+        <v>0.06678955746568249</v>
       </c>
       <c r="E8">
-        <v>0.1192198786790648</v>
+        <v>0.07549846912284153</v>
       </c>
       <c r="F8">
-        <v>1.06849153236017</v>
+        <v>0.6534217222983258</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3028129194117071</v>
+        <v>0.8930280609669126</v>
       </c>
       <c r="L8">
-        <v>0.1895373665808222</v>
+        <v>0.2368217559196353</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.853628928863259</v>
+        <v>2.08561856939221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7034031555616878</v>
+        <v>1.494903896174378</v>
       </c>
       <c r="C9">
-        <v>0.1858351020292162</v>
+        <v>0.1206471703631529</v>
       </c>
       <c r="D9">
-        <v>0.05541885827133086</v>
+        <v>0.07808788709861858</v>
       </c>
       <c r="E9">
-        <v>0.1207773541943808</v>
+        <v>0.08812357485875921</v>
       </c>
       <c r="F9">
-        <v>1.070314351611046</v>
+        <v>0.7259798577746253</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3930818299906491</v>
+        <v>1.193665069125132</v>
       </c>
       <c r="L9">
-        <v>0.2077757740710808</v>
+        <v>0.3116675712381749</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.822806458634375</v>
+        <v>2.19849714712268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7828429776630799</v>
+        <v>1.780445630400123</v>
       </c>
       <c r="C10">
-        <v>0.1854214326336674</v>
+        <v>0.1192209241968314</v>
       </c>
       <c r="D10">
-        <v>0.05844276359182743</v>
+        <v>0.08635130053877305</v>
       </c>
       <c r="E10">
-        <v>0.122216548862486</v>
+        <v>0.09809911222281187</v>
       </c>
       <c r="F10">
-        <v>1.074553548128662</v>
+        <v>0.7867963590028921</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4593818799431233</v>
+        <v>1.416180273409367</v>
       </c>
       <c r="L10">
-        <v>0.221666609997726</v>
+        <v>0.3682661625055488</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.809913828208778</v>
+        <v>2.305750075041743</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8191752283343874</v>
+        <v>1.91144079718768</v>
       </c>
       <c r="C11">
-        <v>0.185256293436133</v>
+        <v>0.1186233745593057</v>
       </c>
       <c r="D11">
-        <v>0.05980555961085088</v>
+        <v>0.09010661460203551</v>
       </c>
       <c r="E11">
-        <v>0.1229352700254971</v>
+        <v>0.1028144555839177</v>
       </c>
       <c r="F11">
-        <v>1.077112569984678</v>
+        <v>0.8163501316913653</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4895362296731776</v>
+        <v>1.517971787398579</v>
       </c>
       <c r="L11">
-        <v>0.2280925395393893</v>
+        <v>0.3944530976287268</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.80616878254142</v>
+        <v>2.360591328980178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8329607982145149</v>
+        <v>1.96123011570279</v>
       </c>
       <c r="C12">
-        <v>0.1851970491289094</v>
+        <v>0.118404585988344</v>
       </c>
       <c r="D12">
-        <v>0.06031975711236015</v>
+        <v>0.09152847897911442</v>
       </c>
       <c r="E12">
-        <v>0.1232166276965927</v>
+        <v>0.1046277925826082</v>
       </c>
       <c r="F12">
-        <v>1.078172310048998</v>
+        <v>0.8278358396981957</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5009536692645042</v>
+        <v>1.556617642813279</v>
       </c>
       <c r="L12">
-        <v>0.2305412087999059</v>
+        <v>0.4044405976894865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.805055604291283</v>
+        <v>2.382297528198222</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8299906238260064</v>
+        <v>1.950498463415187</v>
       </c>
       <c r="C13">
-        <v>0.1852096624744277</v>
+        <v>0.1184513708504795</v>
       </c>
       <c r="D13">
-        <v>0.06020909875410752</v>
+        <v>0.0912222577077344</v>
       </c>
       <c r="E13">
-        <v>0.1231556236104616</v>
+        <v>0.1042359871735101</v>
       </c>
       <c r="F13">
-        <v>1.077940042181837</v>
+        <v>0.8253487147754583</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4984947879209471</v>
+        <v>1.54828983567262</v>
       </c>
       <c r="L13">
-        <v>0.2300131642281116</v>
+        <v>0.4022863191343191</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.805281780236015</v>
+        <v>2.377579796421173</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8203088313989326</v>
+        <v>1.915533144911251</v>
       </c>
       <c r="C14">
-        <v>0.1852513535594795</v>
+        <v>0.1186052238441349</v>
       </c>
       <c r="D14">
-        <v>0.0598479004392658</v>
+        <v>0.09022359398078095</v>
       </c>
       <c r="E14">
-        <v>0.1229582333128079</v>
+        <v>0.1029630706659539</v>
       </c>
       <c r="F14">
-        <v>1.077197937707055</v>
+        <v>0.8172890321178983</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4904755794527489</v>
+        <v>1.521149101120102</v>
       </c>
       <c r="L14">
-        <v>0.2282936865906748</v>
+        <v>0.3952733039933207</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.806071087383941</v>
+        <v>2.362357879485529</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8143819942825132</v>
+        <v>1.894140683347217</v>
       </c>
       <c r="C15">
-        <v>0.1852773183727052</v>
+        <v>0.1187004424799412</v>
       </c>
       <c r="D15">
-        <v>0.05962641261107393</v>
+        <v>0.08961186949724009</v>
       </c>
       <c r="E15">
-        <v>0.1228385229406612</v>
+        <v>0.1021870537325071</v>
       </c>
       <c r="F15">
-        <v>1.07675518878122</v>
+        <v>0.8123912811558256</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4855633906394701</v>
+        <v>1.504538146073003</v>
       </c>
       <c r="L15">
-        <v>0.2272424486491929</v>
+        <v>0.3909871276046886</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.806594283937699</v>
+        <v>2.353158432039919</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7804724406327921</v>
+        <v>1.771909116937252</v>
       </c>
       <c r="C16">
-        <v>0.1854326865453118</v>
+        <v>0.1192610168799391</v>
       </c>
       <c r="D16">
-        <v>0.05835344216615113</v>
+        <v>0.08610583550895967</v>
       </c>
       <c r="E16">
-        <v>0.1221708659630458</v>
+        <v>0.09779471031648512</v>
       </c>
       <c r="F16">
-        <v>1.074399000504968</v>
+        <v>0.784904857545385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4574110601098766</v>
+        <v>1.409540892179166</v>
       </c>
       <c r="L16">
-        <v>0.2212488062662459</v>
+        <v>0.366564292449425</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.810201246253939</v>
+        <v>2.30229360807536</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7597194195235772</v>
+        <v>1.697223838120777</v>
       </c>
       <c r="C17">
-        <v>0.1855338848280894</v>
+        <v>0.1196181209860683</v>
       </c>
       <c r="D17">
-        <v>0.05756922209840809</v>
+        <v>0.08395427451835502</v>
       </c>
       <c r="E17">
-        <v>0.1217776689311911</v>
+        <v>0.09514712652340762</v>
       </c>
       <c r="F17">
-        <v>1.073115076265722</v>
+        <v>0.7685421369042871</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4401386463704284</v>
+        <v>1.351421001516968</v>
       </c>
       <c r="L17">
-        <v>0.2175992386419523</v>
+        <v>0.35169973655033</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.812957061874414</v>
+        <v>2.272686987266383</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7478011938877955</v>
+        <v>1.654368783846962</v>
       </c>
       <c r="C18">
-        <v>0.1855942614920068</v>
+        <v>0.1198283345255575</v>
       </c>
       <c r="D18">
-        <v>0.05711695668486527</v>
+        <v>0.08271637764948281</v>
       </c>
       <c r="E18">
-        <v>0.1215575394537645</v>
+        <v>0.09364086380613301</v>
       </c>
       <c r="F18">
-        <v>1.072435950239708</v>
+        <v>0.7593069826009327</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4302034883361046</v>
+        <v>1.318044310157177</v>
       </c>
       <c r="L18">
-        <v>0.2155101714932925</v>
+        <v>0.3431909470131984</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.814741657846383</v>
+        <v>2.256223215047214</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7437690614924293</v>
+        <v>1.639875547109597</v>
       </c>
       <c r="C19">
-        <v>0.1856150774124075</v>
+        <v>0.1199003330224215</v>
       </c>
       <c r="D19">
-        <v>0.05696362154500179</v>
+        <v>0.08229717233292888</v>
       </c>
       <c r="E19">
-        <v>0.1214840429436954</v>
+        <v>0.09313364760711806</v>
       </c>
       <c r="F19">
-        <v>1.072216203310731</v>
+        <v>0.756209719802527</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4268395404744183</v>
+        <v>1.306752000845336</v>
       </c>
       <c r="L19">
-        <v>0.2148045803689485</v>
+        <v>0.34031681459102</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.815380155073058</v>
+        <v>2.250743917858983</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7619267183088994</v>
+        <v>1.705163480761797</v>
       </c>
       <c r="C20">
-        <v>0.1855228876691655</v>
+        <v>0.1195796073017661</v>
       </c>
       <c r="D20">
-        <v>0.05765282832116725</v>
+        <v>0.08418334833063312</v>
       </c>
       <c r="E20">
-        <v>0.1218189017433353</v>
+        <v>0.09542723708026202</v>
       </c>
       <c r="F20">
-        <v>1.073245609234945</v>
+        <v>0.770265575056797</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4419773821012711</v>
+        <v>1.357602421553764</v>
       </c>
       <c r="L20">
-        <v>0.2179866998598072</v>
+        <v>0.3532778051146863</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.81264304951651</v>
+        <v>2.27577968677997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8231518719024677</v>
+        <v>1.925798087835688</v>
       </c>
       <c r="C21">
-        <v>0.1852390187595674</v>
+        <v>0.1185598291895289</v>
       </c>
       <c r="D21">
-        <v>0.05995404391231318</v>
+        <v>0.09051692800429123</v>
       </c>
       <c r="E21">
-        <v>0.1230159622218068</v>
+        <v>0.1033361857462864</v>
       </c>
       <c r="F21">
-        <v>1.077413450248926</v>
+        <v>0.8196481778009996</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4928310563099672</v>
+        <v>1.529118139472075</v>
       </c>
       <c r="L21">
-        <v>0.2287983238898619</v>
+        <v>0.3973312024239561</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.805830970204283</v>
+        <v>2.366802867148522</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8633250742963696</v>
+        <v>2.071083272552755</v>
       </c>
       <c r="C22">
-        <v>0.1850726621136758</v>
+        <v>0.117937069456012</v>
       </c>
       <c r="D22">
-        <v>0.06144714676299401</v>
+        <v>0.09465535470555153</v>
       </c>
       <c r="E22">
-        <v>0.1238518914585285</v>
+        <v>0.1086679737988554</v>
       </c>
       <c r="F22">
-        <v>1.080666016076236</v>
+        <v>0.8536500014573107</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5260587187786712</v>
+        <v>1.641803564376744</v>
       </c>
       <c r="L22">
-        <v>0.2359535483607829</v>
+        <v>0.4265409797819046</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.803156663553608</v>
+        <v>2.431800729233743</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8418695465844053</v>
+        <v>1.993433193414262</v>
       </c>
       <c r="C23">
-        <v>0.1851597034080896</v>
+        <v>0.1182654047142435</v>
       </c>
       <c r="D23">
-        <v>0.06065125260926862</v>
+        <v>0.09244656119026473</v>
       </c>
       <c r="E23">
-        <v>0.1234008419602404</v>
+        <v>0.1058066212905757</v>
       </c>
       <c r="F23">
-        <v>1.078881684840312</v>
+        <v>0.8353365393779768</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5083254050418304</v>
+        <v>1.581600960804565</v>
       </c>
       <c r="L23">
-        <v>0.2321265300238622</v>
+        <v>0.4109101598014746</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.804421273950851</v>
+        <v>2.396581978858251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7609287581026933</v>
+        <v>1.701573713273262</v>
       </c>
       <c r="C24">
-        <v>0.1855278526420392</v>
+        <v>0.1195970040547749</v>
       </c>
       <c r="D24">
-        <v>0.0576150343279096</v>
+        <v>0.08407978700074636</v>
       </c>
       <c r="E24">
-        <v>0.1218002419333288</v>
+        <v>0.09530054983718728</v>
       </c>
       <c r="F24">
-        <v>1.073186411438613</v>
+        <v>0.7694858746591677</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4411461052687855</v>
+        <v>1.35480768699756</v>
       </c>
       <c r="L24">
-        <v>0.2178115002387102</v>
+        <v>0.3525642455239648</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.812784390768655</v>
+        <v>2.274379746083838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6743254259203582</v>
+        <v>1.390563448874985</v>
       </c>
       <c r="C25">
-        <v>0.1860080237744235</v>
+        <v>0.1212171144861713</v>
       </c>
       <c r="D25">
-        <v>0.05429408431602667</v>
+        <v>0.07503929547157639</v>
       </c>
       <c r="E25">
-        <v>0.1203042032760528</v>
+        <v>0.08459332528318697</v>
       </c>
       <c r="F25">
-        <v>1.069312189369512</v>
+        <v>0.7051145463619619</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3686642073799362</v>
+        <v>1.112113378635314</v>
       </c>
       <c r="L25">
-        <v>0.2027555266340073</v>
+        <v>0.2911656887869469</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.829432809506471</v>
+        <v>2.163935101635616</v>
       </c>
     </row>
   </sheetData>
